--- a/attendance-files/SM-II/SM-II (C) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (C) Attendance Sheet.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Attendance Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$J$6:$L$80</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$N$6:$N$81</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="0kIXMnTVsJ+ec/X0slewiWAWgjss9Snl4RNfTqTgDQQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Z9W7Uqb+WUp8LoAqsbhEt8iyxN65vbqYr6X76orRILM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="170">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1033,10 +1033,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1691,7 +1691,9 @@
       <c r="M7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
@@ -1726,7 +1728,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>23</v>
@@ -1749,7 +1751,9 @@
       <c r="M8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="39"/>
+      <c r="N8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
@@ -1780,7 +1784,7 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
@@ -1807,7 +1811,9 @@
       <c r="M9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -1842,7 +1848,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1850,7 +1856,7 @@
       <c r="H10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="42" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="29" t="s">
@@ -1865,7 +1871,9 @@
       <c r="M10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="39"/>
+      <c r="N10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -1900,7 +1908,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>23</v>
@@ -1923,7 +1931,9 @@
       <c r="M11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="39"/>
+      <c r="N11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -1958,7 +1968,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>23</v>
@@ -1981,7 +1991,9 @@
       <c r="M12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="39"/>
+      <c r="N12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -2016,7 +2028,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2039,7 +2051,9 @@
       <c r="M13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="39"/>
+      <c r="N13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -2074,7 +2088,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2097,7 +2111,9 @@
       <c r="M14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="39"/>
+      <c r="N14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -2132,12 +2148,12 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="37" t="s">
@@ -2155,7 +2171,9 @@
       <c r="M15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
@@ -2190,7 +2208,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2213,7 +2231,9 @@
       <c r="M16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="39"/>
+      <c r="N16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -2248,7 +2268,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2271,7 +2291,9 @@
       <c r="M17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="39"/>
+      <c r="N17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -2306,7 +2328,7 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>23</v>
@@ -2329,7 +2351,9 @@
       <c r="M18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="39"/>
+      <c r="N18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -2364,7 +2388,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>23</v>
@@ -2387,7 +2411,9 @@
       <c r="M19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="39"/>
+      <c r="N19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -2422,7 +2448,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2445,7 +2471,9 @@
       <c r="M20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="39"/>
+      <c r="N20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -2480,7 +2508,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2503,7 +2531,9 @@
       <c r="M21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="39"/>
+      <c r="N21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
@@ -2534,7 +2564,7 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
@@ -2561,7 +2591,9 @@
       <c r="M22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="39"/>
+      <c r="N22" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
@@ -2596,12 +2628,12 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="37" t="s">
@@ -2619,7 +2651,9 @@
       <c r="M23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="39"/>
+      <c r="N23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
@@ -2654,7 +2688,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2677,7 +2711,9 @@
       <c r="M24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="39"/>
+      <c r="N24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
@@ -2712,12 +2748,12 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="37" t="s">
@@ -2735,7 +2771,9 @@
       <c r="M25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
@@ -2766,7 +2804,7 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
@@ -2775,7 +2813,7 @@
       <c r="G26" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="37" t="s">
@@ -2793,7 +2831,9 @@
       <c r="M26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="39"/>
+      <c r="N26" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="39"/>
@@ -2828,7 +2868,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>23</v>
@@ -2851,7 +2891,9 @@
       <c r="M27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="39"/>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
@@ -2882,7 +2924,7 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
@@ -2891,7 +2933,7 @@
       <c r="G28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="37" t="s">
@@ -2909,7 +2951,9 @@
       <c r="M28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="39"/>
+      <c r="N28" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O28" s="39"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -2944,7 +2988,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -2967,7 +3011,9 @@
       <c r="M29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="39"/>
+      <c r="N29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
@@ -3002,7 +3048,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3025,7 +3071,9 @@
       <c r="M30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="39"/>
+      <c r="N30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
@@ -3056,7 +3104,7 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
@@ -3065,7 +3113,7 @@
       <c r="G31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="37" t="s">
@@ -3083,7 +3131,9 @@
       <c r="M31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="39"/>
+      <c r="N31" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
@@ -3118,7 +3168,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3126,7 +3176,7 @@
       <c r="H32" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="42" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="29" t="s">
@@ -3141,7 +3191,9 @@
       <c r="M32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="39"/>
+      <c r="N32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O32" s="39"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
@@ -3172,7 +3224,7 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
@@ -3199,7 +3251,9 @@
       <c r="M33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="39"/>
+      <c r="N33" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="39"/>
@@ -3234,7 +3288,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>23</v>
@@ -3257,7 +3311,9 @@
       <c r="M34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="39"/>
+      <c r="N34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O34" s="39"/>
       <c r="P34" s="39"/>
       <c r="Q34" s="39"/>
@@ -3288,7 +3344,7 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
@@ -3315,7 +3371,9 @@
       <c r="M35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="39"/>
+      <c r="N35" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -3350,7 +3408,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3358,7 +3416,7 @@
       <c r="H36" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="41" t="s">
+      <c r="I36" s="42" t="s">
         <v>23</v>
       </c>
       <c r="J36" s="29" t="s">
@@ -3373,7 +3431,9 @@
       <c r="M36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="39"/>
+      <c r="N36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
@@ -3408,12 +3468,12 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="37" t="s">
@@ -3431,7 +3491,9 @@
       <c r="M37" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N37" s="39"/>
+      <c r="N37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O37" s="39"/>
       <c r="P37" s="39"/>
       <c r="Q37" s="39"/>
@@ -3466,7 +3528,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3489,7 +3551,9 @@
       <c r="M38" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="39"/>
+      <c r="N38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O38" s="39"/>
       <c r="P38" s="39"/>
       <c r="Q38" s="39"/>
@@ -3524,15 +3588,15 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="41" t="s">
+      <c r="I39" s="42" t="s">
         <v>23</v>
       </c>
       <c r="J39" s="29" t="s">
@@ -3547,7 +3611,9 @@
       <c r="M39" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="39"/>
+      <c r="N39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O39" s="39"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="39"/>
@@ -3582,7 +3648,7 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>23</v>
@@ -3605,7 +3671,9 @@
       <c r="M40" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="39"/>
+      <c r="N40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O40" s="39"/>
       <c r="P40" s="39"/>
       <c r="Q40" s="39"/>
@@ -3636,7 +3704,7 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
@@ -3663,7 +3731,9 @@
       <c r="M41" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="39"/>
+      <c r="N41" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O41" s="39"/>
       <c r="P41" s="39"/>
       <c r="Q41" s="39"/>
@@ -3698,7 +3768,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3721,7 +3791,9 @@
       <c r="M42" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="39"/>
+      <c r="N42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O42" s="39"/>
       <c r="P42" s="39"/>
       <c r="Q42" s="39"/>
@@ -3756,7 +3828,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3779,7 +3851,9 @@
       <c r="M43" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="39"/>
+      <c r="N43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O43" s="39"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="39"/>
@@ -3814,7 +3888,7 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3837,7 +3911,9 @@
       <c r="M44" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="39"/>
+      <c r="N44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O44" s="39"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="39"/>
@@ -3872,7 +3948,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -3895,7 +3971,9 @@
       <c r="M45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="39"/>
+      <c r="N45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O45" s="39"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="39"/>
@@ -3930,7 +4008,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -3953,7 +4031,9 @@
       <c r="M46" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="39"/>
+      <c r="N46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O46" s="39"/>
       <c r="P46" s="39"/>
       <c r="Q46" s="39"/>
@@ -3988,12 +4068,12 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="37" t="s">
@@ -4011,7 +4091,9 @@
       <c r="M47" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="39"/>
+      <c r="N47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O47" s="39"/>
       <c r="P47" s="39"/>
       <c r="Q47" s="39"/>
@@ -4046,7 +4128,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>23</v>
@@ -4069,7 +4151,9 @@
       <c r="M48" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="39"/>
+      <c r="N48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O48" s="39"/>
       <c r="P48" s="39"/>
       <c r="Q48" s="39"/>
@@ -4104,7 +4188,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>23</v>
@@ -4127,7 +4211,9 @@
       <c r="M49" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="39"/>
+      <c r="N49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O49" s="39"/>
       <c r="P49" s="39"/>
       <c r="Q49" s="39"/>
@@ -4162,7 +4248,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4185,7 +4271,9 @@
       <c r="M50" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="39"/>
+      <c r="N50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O50" s="39"/>
       <c r="P50" s="39"/>
       <c r="Q50" s="39"/>
@@ -4220,7 +4308,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4243,7 +4331,9 @@
       <c r="M51" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="39"/>
+      <c r="N51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O51" s="39"/>
       <c r="P51" s="39"/>
       <c r="Q51" s="39"/>
@@ -4278,7 +4368,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4301,7 +4391,9 @@
       <c r="M52" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="39"/>
+      <c r="N52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O52" s="39"/>
       <c r="P52" s="39"/>
       <c r="Q52" s="39"/>
@@ -4336,7 +4428,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>23</v>
@@ -4359,7 +4451,9 @@
       <c r="M53" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="39"/>
+      <c r="N53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O53" s="39"/>
       <c r="P53" s="39"/>
       <c r="Q53" s="39"/>
@@ -4390,7 +4484,7 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
@@ -4417,7 +4511,9 @@
       <c r="M54" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="39"/>
+      <c r="N54" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O54" s="39"/>
       <c r="P54" s="39"/>
       <c r="Q54" s="39"/>
@@ -4452,12 +4548,12 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="41" t="s">
+      <c r="H55" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I55" s="37" t="s">
@@ -4475,7 +4571,9 @@
       <c r="M55" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="39"/>
+      <c r="N55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
       <c r="Q55" s="39"/>
@@ -4510,7 +4608,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>23</v>
@@ -4533,7 +4631,9 @@
       <c r="M56" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="39"/>
+      <c r="N56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O56" s="39"/>
       <c r="P56" s="39"/>
       <c r="Q56" s="39"/>
@@ -4564,7 +4664,7 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
@@ -4591,7 +4691,9 @@
       <c r="M57" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="39"/>
+      <c r="N57" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O57" s="39"/>
       <c r="P57" s="39"/>
       <c r="Q57" s="39"/>
@@ -4622,7 +4724,7 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
@@ -4631,10 +4733,10 @@
       <c r="G58" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="41" t="s">
+      <c r="I58" s="42" t="s">
         <v>23</v>
       </c>
       <c r="J58" s="29" t="s">
@@ -4649,7 +4751,9 @@
       <c r="M58" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="39"/>
+      <c r="N58" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O58" s="39"/>
       <c r="P58" s="39"/>
       <c r="Q58" s="39"/>
@@ -4680,7 +4784,7 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
@@ -4707,7 +4811,9 @@
       <c r="M59" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="39"/>
+      <c r="N59" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O59" s="39"/>
       <c r="P59" s="39"/>
       <c r="Q59" s="39"/>
@@ -4742,12 +4848,12 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="41" t="s">
+      <c r="H60" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I60" s="37" t="s">
@@ -4765,7 +4871,9 @@
       <c r="M60" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N60" s="39"/>
+      <c r="N60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O60" s="39"/>
       <c r="P60" s="39"/>
       <c r="Q60" s="39"/>
@@ -4800,7 +4908,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -4823,7 +4931,9 @@
       <c r="M61" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="39"/>
+      <c r="N61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O61" s="39"/>
       <c r="P61" s="39"/>
       <c r="Q61" s="39"/>
@@ -4858,12 +4968,12 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="41" t="s">
+      <c r="H62" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I62" s="37" t="s">
@@ -4881,7 +4991,9 @@
       <c r="M62" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="39"/>
+      <c r="N62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O62" s="39"/>
       <c r="P62" s="39"/>
       <c r="Q62" s="39"/>
@@ -4912,7 +5024,7 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
@@ -4924,7 +5036,7 @@
       <c r="H63" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="41" t="s">
+      <c r="I63" s="42" t="s">
         <v>23</v>
       </c>
       <c r="J63" s="38" t="s">
@@ -4939,7 +5051,9 @@
       <c r="M63" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="39"/>
+      <c r="N63" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O63" s="39"/>
       <c r="P63" s="39"/>
       <c r="Q63" s="39"/>
@@ -4970,7 +5084,7 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
@@ -4997,7 +5111,9 @@
       <c r="M64" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="39"/>
+      <c r="N64" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O64" s="39"/>
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
@@ -5032,7 +5148,7 @@
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5040,7 +5156,7 @@
       <c r="H65" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="41" t="s">
+      <c r="I65" s="42" t="s">
         <v>23</v>
       </c>
       <c r="J65" s="38" t="s">
@@ -5055,7 +5171,9 @@
       <c r="M65" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N65" s="39"/>
+      <c r="N65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O65" s="39"/>
       <c r="P65" s="39"/>
       <c r="Q65" s="39"/>
@@ -5086,7 +5204,7 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
@@ -5095,7 +5213,7 @@
       <c r="G66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="41" t="s">
+      <c r="H66" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I66" s="37" t="s">
@@ -5113,7 +5231,9 @@
       <c r="M66" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="39"/>
+      <c r="N66" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O66" s="39"/>
       <c r="P66" s="39"/>
       <c r="Q66" s="39"/>
@@ -5148,7 +5268,7 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5171,7 +5291,9 @@
       <c r="M67" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="39"/>
+      <c r="N67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O67" s="39"/>
       <c r="P67" s="39"/>
       <c r="Q67" s="39"/>
@@ -5206,7 +5328,7 @@
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5229,7 +5351,9 @@
       <c r="M68" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="39"/>
+      <c r="N68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O68" s="39"/>
       <c r="P68" s="39"/>
       <c r="Q68" s="39"/>
@@ -5264,7 +5388,7 @@
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5287,7 +5411,9 @@
       <c r="M69" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="39"/>
+      <c r="N69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O69" s="39"/>
       <c r="P69" s="39"/>
       <c r="Q69" s="39"/>
@@ -5318,7 +5444,7 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
@@ -5345,7 +5471,9 @@
       <c r="M70" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="39"/>
+      <c r="N70" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O70" s="39"/>
       <c r="P70" s="39"/>
       <c r="Q70" s="39"/>
@@ -5380,7 +5508,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5403,7 +5531,9 @@
       <c r="M71" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="39"/>
+      <c r="N71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O71" s="39"/>
       <c r="P71" s="39"/>
       <c r="Q71" s="39"/>
@@ -5438,7 +5568,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -5461,7 +5591,9 @@
       <c r="M72" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="39"/>
+      <c r="N72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O72" s="39"/>
       <c r="P72" s="39"/>
       <c r="Q72" s="39"/>
@@ -5496,7 +5628,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>23</v>
@@ -5519,7 +5651,9 @@
       <c r="M73" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="39"/>
+      <c r="N73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O73" s="39"/>
       <c r="P73" s="39"/>
       <c r="Q73" s="39"/>
@@ -5550,7 +5684,7 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
@@ -5577,7 +5711,9 @@
       <c r="M74" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N74" s="39"/>
+      <c r="N74" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O74" s="39"/>
       <c r="P74" s="39"/>
       <c r="Q74" s="39"/>
@@ -5612,7 +5748,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -5635,7 +5771,9 @@
       <c r="M75" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N75" s="39"/>
+      <c r="N75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O75" s="39"/>
       <c r="P75" s="39"/>
       <c r="Q75" s="39"/>
@@ -5666,7 +5804,7 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
@@ -5678,7 +5816,7 @@
       <c r="H76" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="42" t="s">
+      <c r="I76" s="41" t="s">
         <v>23</v>
       </c>
       <c r="J76" s="38" t="s">
@@ -5693,7 +5831,9 @@
       <c r="M76" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="39"/>
+      <c r="N76" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O76" s="39"/>
       <c r="P76" s="39"/>
       <c r="Q76" s="39"/>
@@ -5728,7 +5868,7 @@
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5751,7 +5891,9 @@
       <c r="M77" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="39"/>
+      <c r="N77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O77" s="39"/>
       <c r="P77" s="39"/>
       <c r="Q77" s="39"/>
@@ -5786,12 +5928,12 @@
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="41" t="s">
+      <c r="H78" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I78" s="37" t="s">
@@ -5809,7 +5951,9 @@
       <c r="M78" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N78" s="39"/>
+      <c r="N78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O78" s="39"/>
       <c r="P78" s="39"/>
       <c r="Q78" s="39"/>
@@ -5844,12 +5988,12 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="41" t="s">
+      <c r="H79" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I79" s="37" t="s">
@@ -5867,7 +6011,9 @@
       <c r="M79" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="39"/>
+      <c r="N79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O79" s="39"/>
       <c r="P79" s="39"/>
       <c r="Q79" s="39"/>
@@ -5898,7 +6044,7 @@
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
@@ -5925,7 +6071,9 @@
       <c r="M80" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N80" s="39"/>
+      <c r="N80" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="O80" s="39"/>
       <c r="P80" s="39"/>
       <c r="Q80" s="39"/>
@@ -5960,7 +6108,7 @@
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>20</v>
@@ -5983,7 +6131,9 @@
       <c r="M81" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N81" s="39"/>
+      <c r="N81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O81" s="39"/>
       <c r="P81" s="39"/>
       <c r="Q81" s="39"/>
@@ -20106,7 +20256,7 @@
       <c r="S1000" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="$J$6:$L$80"/>
+  <autoFilter ref="$N$6:$N$81"/>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/attendance-files/SM-II/SM-II (C) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (C) Attendance Sheet.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Attendance Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$N$6:$N$81</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$O$6:$O$81</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Z9W7Uqb+WUp8LoAqsbhEt8iyxN65vbqYr6X76orRILM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="fCdqiOT3kk8NedybA44tjXN6FZu17zG5vi6FGFAJyF4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="170">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1703,9 +1703,15 @@
       <c r="N7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
       <c r="T7" s="31"/>
@@ -1737,7 +1743,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>23</v>
@@ -1763,11 +1769,15 @@
       <c r="N8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
+      <c r="P8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
       <c r="T8" s="40"/>
@@ -1799,7 +1809,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>23</v>
@@ -1825,9 +1835,15 @@
       <c r="N9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
+      <c r="O9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
       <c r="T9" s="40"/>
@@ -1859,7 +1875,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1885,9 +1901,13 @@
       <c r="N10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="37" t="s">
+      <c r="O10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R10" s="39"/>
@@ -1921,7 +1941,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>23</v>
@@ -1947,9 +1967,15 @@
       <c r="N11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="O11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
       <c r="T11" s="40"/>
@@ -1981,7 +2007,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>23</v>
@@ -2007,9 +2033,15 @@
       <c r="N12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="O12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
       <c r="T12" s="40"/>
@@ -2041,7 +2073,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2067,9 +2099,15 @@
       <c r="N13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="O13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
       <c r="T13" s="40"/>
@@ -2101,7 +2139,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2127,9 +2165,13 @@
       <c r="N14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="37" t="s">
+      <c r="O14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R14" s="39"/>
@@ -2163,7 +2205,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2189,9 +2231,15 @@
       <c r="N15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="O15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
       <c r="T15" s="40"/>
@@ -2223,7 +2271,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2249,9 +2297,15 @@
       <c r="N16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="O16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
       <c r="T16" s="40"/>
@@ -2283,7 +2337,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2309,9 +2363,13 @@
       <c r="N17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="37" t="s">
+      <c r="O17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R17" s="39"/>
@@ -2345,7 +2403,7 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>23</v>
@@ -2371,9 +2429,15 @@
       <c r="N18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="O18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
       <c r="T18" s="40"/>
@@ -2405,7 +2469,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>23</v>
@@ -2431,9 +2495,15 @@
       <c r="N19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="O19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
       <c r="T19" s="40"/>
@@ -2465,7 +2535,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2491,9 +2561,15 @@
       <c r="N20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="O20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
       <c r="T20" s="40"/>
@@ -2525,7 +2601,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2551,9 +2627,15 @@
       <c r="N21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="O21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
       <c r="T21" s="40"/>
@@ -2585,7 +2667,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2611,9 +2693,15 @@
       <c r="N22" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
+      <c r="O22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
       <c r="T22" s="40"/>
@@ -2645,7 +2733,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2671,9 +2759,15 @@
       <c r="N23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
+      <c r="O23" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
       <c r="T23" s="40"/>
@@ -2705,7 +2799,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2731,9 +2825,13 @@
       <c r="N24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="37" t="s">
+      <c r="O24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R24" s="39"/>
@@ -2767,7 +2865,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2793,9 +2891,15 @@
       <c r="N25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
+      <c r="O25" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
       <c r="T25" s="40"/>
@@ -2827,7 +2931,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>23</v>
@@ -2853,9 +2957,15 @@
       <c r="N26" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
+      <c r="O26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
       <c r="T26" s="40"/>
@@ -2887,7 +2997,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>23</v>
@@ -2913,9 +3023,15 @@
       <c r="N27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
+      <c r="O27" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
       <c r="T27" s="40"/>
@@ -2947,7 +3063,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>23</v>
@@ -2973,9 +3089,15 @@
       <c r="N28" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
+      <c r="O28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
       <c r="T28" s="40"/>
@@ -3007,7 +3129,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3033,9 +3155,15 @@
       <c r="N29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+      <c r="O29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R29" s="39"/>
       <c r="S29" s="39"/>
       <c r="T29" s="40"/>
@@ -3067,7 +3195,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -3093,9 +3221,15 @@
       <c r="N30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
+      <c r="O30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
       <c r="T30" s="40"/>
@@ -3127,7 +3261,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3153,9 +3287,15 @@
       <c r="N31" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
+      <c r="O31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R31" s="39"/>
       <c r="S31" s="39"/>
       <c r="T31" s="40"/>
@@ -3187,7 +3327,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3213,9 +3353,15 @@
       <c r="N32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
+      <c r="O32" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
       <c r="T32" s="40"/>
@@ -3247,7 +3393,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3273,11 +3419,15 @@
       <c r="N33" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="37" t="s">
+      <c r="O33" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R33" s="39"/>
       <c r="S33" s="39"/>
       <c r="T33" s="40"/>
@@ -3309,7 +3459,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>23</v>
@@ -3335,9 +3485,15 @@
       <c r="N34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
+      <c r="O34" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
       <c r="T34" s="40"/>
@@ -3369,7 +3525,7 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3395,9 +3551,15 @@
       <c r="N35" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
+      <c r="O35" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R35" s="39"/>
       <c r="S35" s="39"/>
       <c r="T35" s="40"/>
@@ -3455,13 +3617,13 @@
       <c r="N36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="37" t="s">
+      <c r="O36" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P36" s="37" t="s">
+      <c r="P36" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q36" s="37" t="s">
+      <c r="Q36" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R36" s="39"/>
@@ -3495,7 +3657,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3521,9 +3683,15 @@
       <c r="N37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
+      <c r="O37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
       <c r="T37" s="40"/>
@@ -3555,7 +3723,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3581,9 +3749,15 @@
       <c r="N38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
+      <c r="O38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
       <c r="T38" s="40"/>
@@ -3615,7 +3789,7 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>23</v>
@@ -3641,9 +3815,15 @@
       <c r="N39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
+      <c r="O39" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R39" s="39"/>
       <c r="S39" s="39"/>
       <c r="T39" s="40"/>
@@ -3675,7 +3855,7 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>23</v>
@@ -3701,9 +3881,15 @@
       <c r="N40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
+      <c r="O40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R40" s="39"/>
       <c r="S40" s="39"/>
       <c r="T40" s="40"/>
@@ -3735,7 +3921,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>23</v>
@@ -3761,9 +3947,15 @@
       <c r="N41" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
+      <c r="O41" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R41" s="39"/>
       <c r="S41" s="39"/>
       <c r="T41" s="40"/>
@@ -3795,7 +3987,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3821,9 +4013,15 @@
       <c r="N42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
+      <c r="O42" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
       <c r="T42" s="40"/>
@@ -3855,7 +4053,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3881,9 +4079,15 @@
       <c r="N43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
+      <c r="O43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R43" s="39"/>
       <c r="S43" s="39"/>
       <c r="T43" s="40"/>
@@ -3915,7 +4119,7 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3941,9 +4145,15 @@
       <c r="N44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
+      <c r="O44" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
       <c r="T44" s="40"/>
@@ -3975,7 +4185,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -4001,11 +4211,15 @@
       <c r="N45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="39"/>
-      <c r="P45" s="37" t="s">
+      <c r="O45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q45" s="39"/>
+      <c r="Q45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R45" s="39"/>
       <c r="S45" s="39"/>
       <c r="T45" s="40"/>
@@ -4037,7 +4251,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4063,9 +4277,15 @@
       <c r="N46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
+      <c r="O46" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
       <c r="T46" s="40"/>
@@ -4097,7 +4317,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4123,9 +4343,15 @@
       <c r="N47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
+      <c r="O47" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R47" s="39"/>
       <c r="S47" s="39"/>
       <c r="T47" s="40"/>
@@ -4157,7 +4383,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>23</v>
@@ -4183,9 +4409,15 @@
       <c r="N48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
+      <c r="O48" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
       <c r="T48" s="40"/>
@@ -4217,7 +4449,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>23</v>
@@ -4243,13 +4475,15 @@
       <c r="N49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="37" t="s">
+      <c r="O49" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P49" s="37" t="s">
+      <c r="P49" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q49" s="39"/>
+      <c r="Q49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R49" s="39"/>
       <c r="S49" s="39"/>
       <c r="T49" s="40"/>
@@ -4281,7 +4515,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4307,11 +4541,15 @@
       <c r="N50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O50" s="37" t="s">
+      <c r="O50" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
+      <c r="P50" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
       <c r="T50" s="40"/>
@@ -4343,7 +4581,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4369,9 +4607,15 @@
       <c r="N51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
+      <c r="O51" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R51" s="39"/>
       <c r="S51" s="39"/>
       <c r="T51" s="40"/>
@@ -4403,7 +4647,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -4429,9 +4673,15 @@
       <c r="N52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
+      <c r="O52" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
       <c r="T52" s="40"/>
@@ -4463,7 +4713,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>23</v>
@@ -4489,11 +4739,15 @@
       <c r="N53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="37" t="s">
+      <c r="O53" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
+      <c r="P53" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R53" s="39"/>
       <c r="S53" s="39"/>
       <c r="T53" s="40"/>
@@ -4525,7 +4779,7 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>23</v>
@@ -4551,9 +4805,15 @@
       <c r="N54" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
+      <c r="O54" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
       <c r="T54" s="40"/>
@@ -4585,7 +4845,7 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>23</v>
@@ -4611,9 +4871,15 @@
       <c r="N55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
+      <c r="O55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R55" s="39"/>
       <c r="S55" s="39"/>
       <c r="T55" s="40"/>
@@ -4645,7 +4911,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>23</v>
@@ -4671,9 +4937,15 @@
       <c r="N56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
+      <c r="O56" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
       <c r="T56" s="40"/>
@@ -4705,7 +4977,7 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -4731,11 +5003,15 @@
       <c r="N57" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="37" t="s">
+      <c r="O57" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
+      <c r="P57" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R57" s="39"/>
       <c r="S57" s="39"/>
       <c r="T57" s="40"/>
@@ -4767,7 +5043,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4793,9 +5069,15 @@
       <c r="N58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
+      <c r="O58" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
       <c r="T58" s="40"/>
@@ -4827,7 +5109,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4853,9 +5135,15 @@
       <c r="N59" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
+      <c r="O59" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R59" s="39"/>
       <c r="S59" s="39"/>
       <c r="T59" s="40"/>
@@ -4887,7 +5175,7 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4913,9 +5201,13 @@
       <c r="N60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="37" t="s">
+      <c r="O60" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R60" s="39"/>
@@ -4949,7 +5241,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -4975,13 +5267,15 @@
       <c r="N61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O61" s="37" t="s">
+      <c r="O61" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P61" s="37" t="s">
+      <c r="P61" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q61" s="39"/>
+      <c r="Q61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="39"/>
       <c r="S61" s="39"/>
       <c r="T61" s="40"/>
@@ -5013,7 +5307,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5039,9 +5333,15 @@
       <c r="N62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
+      <c r="O62" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="39"/>
       <c r="S62" s="39"/>
       <c r="T62" s="40"/>
@@ -5099,13 +5399,13 @@
       <c r="N63" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O63" s="37" t="s">
+      <c r="O63" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P63" s="37" t="s">
+      <c r="P63" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="37" t="s">
+      <c r="Q63" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R63" s="37"/>
@@ -5139,7 +5439,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>23</v>
@@ -5165,9 +5465,13 @@
       <c r="N64" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="37" t="s">
+      <c r="O64" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R64" s="37"/>
@@ -5201,7 +5505,7 @@
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5227,9 +5531,15 @@
       <c r="N65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
+      <c r="O65" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R65" s="39"/>
       <c r="S65" s="39"/>
       <c r="T65" s="40"/>
@@ -5261,7 +5571,7 @@
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5287,9 +5597,15 @@
       <c r="N66" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
+      <c r="O66" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R66" s="39"/>
       <c r="S66" s="39"/>
       <c r="T66" s="40"/>
@@ -5321,7 +5637,7 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -5347,9 +5663,15 @@
       <c r="N67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
+      <c r="O67" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
       <c r="T67" s="40"/>
@@ -5381,7 +5703,7 @@
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5407,9 +5729,15 @@
       <c r="N68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
+      <c r="O68" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R68" s="39"/>
       <c r="S68" s="39"/>
       <c r="T68" s="40"/>
@@ -5441,7 +5769,7 @@
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5467,11 +5795,15 @@
       <c r="N69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="39"/>
-      <c r="P69" s="37" t="s">
+      <c r="O69" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q69" s="39"/>
+      <c r="Q69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
       <c r="T69" s="40"/>
@@ -5503,7 +5835,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5529,9 +5861,13 @@
       <c r="N70" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="37" t="s">
+      <c r="O70" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R70" s="39"/>
@@ -5565,7 +5901,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5591,9 +5927,15 @@
       <c r="N71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
+      <c r="O71" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R71" s="39"/>
       <c r="S71" s="39"/>
       <c r="T71" s="40"/>
@@ -5625,7 +5967,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -5651,9 +5993,15 @@
       <c r="N72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
+      <c r="O72" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R72" s="39"/>
       <c r="S72" s="39"/>
       <c r="T72" s="40"/>
@@ -5685,7 +6033,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>23</v>
@@ -5711,9 +6059,15 @@
       <c r="N73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
+      <c r="O73" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R73" s="39"/>
       <c r="S73" s="39"/>
       <c r="T73" s="40"/>
@@ -5745,7 +6099,7 @@
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -5771,9 +6125,15 @@
       <c r="N74" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
+      <c r="O74" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R74" s="39"/>
       <c r="S74" s="39"/>
       <c r="T74" s="40"/>
@@ -5805,7 +6165,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -5831,9 +6191,13 @@
       <c r="N75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="37" t="s">
+      <c r="O75" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R75" s="37"/>
@@ -5867,7 +6231,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>23</v>
@@ -5893,9 +6257,13 @@
       <c r="N76" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="37" t="s">
+      <c r="O76" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="38" t="s">
         <v>23</v>
       </c>
       <c r="R76" s="37"/>
@@ -5929,7 +6297,7 @@
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5955,9 +6323,15 @@
       <c r="N77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
+      <c r="O77" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R77" s="39"/>
       <c r="S77" s="39"/>
       <c r="T77" s="40"/>
@@ -5989,7 +6363,7 @@
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -6015,9 +6389,15 @@
       <c r="N78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
+      <c r="O78" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R78" s="39"/>
       <c r="S78" s="39"/>
       <c r="T78" s="40"/>
@@ -6049,7 +6429,7 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>20</v>
@@ -6075,9 +6455,15 @@
       <c r="N79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
+      <c r="O79" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R79" s="39"/>
       <c r="S79" s="39"/>
       <c r="T79" s="40"/>
@@ -6109,7 +6495,7 @@
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>23</v>
@@ -6135,9 +6521,15 @@
       <c r="N80" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
+      <c r="O80" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R80" s="39"/>
       <c r="S80" s="39"/>
       <c r="T80" s="40"/>
@@ -6169,7 +6561,7 @@
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>20</v>
@@ -6195,9 +6587,15 @@
       <c r="N81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
+      <c r="O81" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R81" s="39"/>
       <c r="S81" s="39"/>
       <c r="T81" s="40"/>
@@ -20317,7 +20715,7 @@
       <c r="S1000" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="$N$6:$N$81"/>
+  <autoFilter ref="$O$6:$O$81"/>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
